--- a/backend/tests1/data/test_output2.xlsx
+++ b/backend/tests1/data/test_output2.xlsx
@@ -44,14 +44,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCC"/>
-        <bgColor rgb="00FFCCCC"/>
+        <fgColor rgb="00CCFFCC"/>
+        <bgColor rgb="00CCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
-        <bgColor rgb="00CCFFCC"/>
+        <fgColor rgb="00FFCCCC"/>
+        <bgColor rgb="00FFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -489,7 +489,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
           <t>判断电机的工作状态情况。</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>是</t>
         </is>
@@ -540,7 +540,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
           <t>判断发动机转速是否发生超过规定的车台保护值的异常情况。</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>是</t>
         </is>
@@ -572,7 +572,7 @@
           <t>判断发动机排气温度是否发生超过规定的车台保护值的异常情况。</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>否</t>
         </is>
